--- a/trials/onur2008/one_cell_1e7_vol_onur2008/onur_calc.xlsx
+++ b/trials/onur2008/one_cell_1e7_vol_onur2008/onur_calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myvuwac-my.sharepoint.com/personal/duggalrohi_myvuw_ac_nz/Documents/wai_sim/model/Onur2008/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myvuwac-my.sharepoint.com/personal/duggalrohi_myvuw_ac_nz/Documents/wai_sim/simulation/trials/onur2008/one_cell_1e7_vol_onur2008/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="728" documentId="8_{039A52CA-99B0-4142-ABD1-75F49B448DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59193AF-D01F-43CB-AA04-033A585BBF5B}"/>
+  <xr:revisionPtr revIDLastSave="734" documentId="8_{039A52CA-99B0-4142-ABD1-75F49B448DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B7049AA-E61A-4512-B2AB-0A7AB39479A6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E8903688-4988-4AD0-AA47-6FBF2596F01C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{E8903688-4988-4AD0-AA47-6FBF2596F01C}"/>
   </bookViews>
   <sheets>
     <sheet name="onurT" sheetId="6" r:id="rId1"/>
@@ -2698,7 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1960B4-B568-4DB4-935B-3FAAF5B1150C}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -4409,8 +4409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6DAF24-5525-4D03-BF9A-8F00D4E1F5A6}">
   <dimension ref="A1:AG73"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="G21" zoomScale="84" workbookViewId="0">
+      <selection activeCell="AH56" sqref="AH56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,11 +4893,11 @@
         <v>36000000</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" ref="N18:N32" si="2">P18-((Q18*R18)/(V18))</f>
+        <f>P18-((Q18*R18)/(V18))</f>
         <v>4992711.9899911331</v>
       </c>
       <c r="O18" s="13">
-        <f t="shared" ref="O18:O32" si="3">CONVERT(N18,"Pa","atm")</f>
+        <f t="shared" ref="O18:O32" si="2">CONVERT(N18,"Pa","atm")</f>
         <v>49.274236269342545</v>
       </c>
       <c r="P18" s="5">
@@ -4911,19 +4911,19 @@
         <v>3600</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:S32" si="4">Q18*R18</f>
+        <f t="shared" ref="S18:S32" si="3">Q18*R18</f>
         <v>18000</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" ref="T18:T32" si="5">S18/V18</f>
+        <f t="shared" ref="T18:T32" si="4">S18/V18</f>
         <v>7288.0100088670797</v>
       </c>
       <c r="U18" s="6">
-        <f t="shared" ref="U18:U32" si="6">T18/R18</f>
+        <f t="shared" ref="U18:U32" si="5">T18/R18</f>
         <v>2.0244472246853</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" ref="V18:V32" si="7">W18*X18*Y18*Z18</f>
+        <f>W18*X18*Y18*Z18</f>
         <v>2.4698099999999998</v>
       </c>
       <c r="W18" s="5">
@@ -4955,37 +4955,37 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N19" s="3">
+        <f t="shared" ref="N18:N32" si="6">P19-((Q19*R19)/(V19))</f>
+        <v>4978135.9699733984</v>
+      </c>
+      <c r="O19" s="13">
         <f t="shared" si="2"/>
-        <v>4978135.9699733984</v>
-      </c>
-      <c r="O19" s="13">
-        <f t="shared" si="3"/>
         <v>49.130382136426334</v>
       </c>
       <c r="P19" s="5">
         <v>5000000</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:Q32" si="8">Q18</f>
+        <f t="shared" ref="Q19:Q32" si="7">Q18</f>
         <v>5</v>
       </c>
       <c r="R19">
         <v>10800</v>
       </c>
       <c r="S19">
+        <f t="shared" si="3"/>
+        <v>54000</v>
+      </c>
+      <c r="T19" s="5">
         <f t="shared" si="4"/>
-        <v>54000</v>
-      </c>
-      <c r="T19" s="5">
+        <v>21864.030026601238</v>
+      </c>
+      <c r="U19" s="6">
         <f t="shared" si="5"/>
-        <v>21864.030026601238</v>
-      </c>
-      <c r="U19" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246853</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="V18:V32" si="8">W19*X19*Y19*Z19</f>
         <v>2.4698099999999998</v>
       </c>
       <c r="W19" s="5">
@@ -5023,37 +5023,37 @@
         <v>10</v>
       </c>
       <c r="N20" s="3">
+        <f t="shared" si="6"/>
+        <v>4948983.9299379308</v>
+      </c>
+      <c r="O20" s="13">
         <f t="shared" si="2"/>
-        <v>4948983.9299379308</v>
-      </c>
-      <c r="O20" s="13">
-        <f t="shared" si="3"/>
         <v>48.842673870593941</v>
       </c>
       <c r="P20" s="5">
         <v>5000000</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R20">
         <v>25200</v>
       </c>
       <c r="S20">
+        <f t="shared" si="3"/>
+        <v>126000</v>
+      </c>
+      <c r="T20" s="5">
         <f t="shared" si="4"/>
-        <v>126000</v>
-      </c>
-      <c r="T20" s="5">
+        <v>51016.070062069557</v>
+      </c>
+      <c r="U20" s="6">
         <f t="shared" si="5"/>
-        <v>51016.070062069557</v>
-      </c>
-      <c r="U20" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246853</v>
       </c>
       <c r="V20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4698099999999998</v>
       </c>
       <c r="W20" s="5">
@@ -5091,37 +5091,37 @@
         <v>1</v>
       </c>
       <c r="N21" s="3">
+        <f t="shared" si="6"/>
+        <v>4890679.8498669937</v>
+      </c>
+      <c r="O21" s="13">
         <f t="shared" si="2"/>
-        <v>4890679.8498669937</v>
-      </c>
-      <c r="O21" s="13">
-        <f t="shared" si="3"/>
         <v>48.267257338929127</v>
       </c>
       <c r="P21" s="5">
         <v>5000000</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R21">
         <v>54000</v>
       </c>
       <c r="S21">
+        <f t="shared" si="3"/>
+        <v>270000</v>
+      </c>
+      <c r="T21" s="5">
         <f t="shared" si="4"/>
-        <v>270000</v>
-      </c>
-      <c r="T21" s="5">
+        <v>109320.15013300619</v>
+      </c>
+      <c r="U21" s="6">
         <f t="shared" si="5"/>
-        <v>109320.15013300619</v>
-      </c>
-      <c r="U21" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246852996</v>
       </c>
       <c r="V21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4698099999999998</v>
       </c>
       <c r="W21" s="5">
@@ -5173,37 +5173,37 @@
         <v>0.1</v>
       </c>
       <c r="N22" s="3">
+        <f t="shared" si="6"/>
+        <v>4774071.6897251206</v>
+      </c>
+      <c r="O22" s="13">
         <f t="shared" si="2"/>
-        <v>4774071.6897251206</v>
-      </c>
-      <c r="O22" s="13">
-        <f t="shared" si="3"/>
         <v>47.116424275599513</v>
       </c>
       <c r="P22" s="5">
         <v>5000000</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R22">
         <v>111600</v>
       </c>
       <c r="S22">
+        <f t="shared" si="3"/>
+        <v>558000</v>
+      </c>
+      <c r="T22" s="5">
         <f t="shared" si="4"/>
-        <v>558000</v>
-      </c>
-      <c r="T22" s="5">
+        <v>225928.31027487945</v>
+      </c>
+      <c r="U22" s="6">
         <f t="shared" si="5"/>
-        <v>225928.31027487945</v>
-      </c>
-      <c r="U22" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246852996</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4698099999999998</v>
       </c>
       <c r="W22" s="5">
@@ -5241,37 +5241,37 @@
         <v>0.01</v>
       </c>
       <c r="N23" s="3">
+        <f t="shared" si="6"/>
+        <v>4599159.4495123103</v>
+      </c>
+      <c r="O23" s="13">
         <f t="shared" si="2"/>
-        <v>4599159.4495123103</v>
-      </c>
-      <c r="O23" s="13">
-        <f t="shared" si="3"/>
         <v>45.390174680605085</v>
       </c>
       <c r="P23" s="5">
         <v>5000000</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R23">
         <v>198000</v>
       </c>
       <c r="S23">
+        <f t="shared" si="3"/>
+        <v>990000</v>
+      </c>
+      <c r="T23" s="5">
         <f t="shared" si="4"/>
-        <v>990000</v>
-      </c>
-      <c r="T23" s="5">
+        <v>400840.55048768938</v>
+      </c>
+      <c r="U23" s="6">
         <f t="shared" si="5"/>
-        <v>400840.55048768938</v>
-      </c>
-      <c r="U23" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246853</v>
       </c>
       <c r="V23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4698099999999998</v>
       </c>
       <c r="W23" s="5">
@@ -5309,37 +5309,37 @@
         <v>1E-3</v>
       </c>
       <c r="N24" s="3">
+        <f t="shared" si="6"/>
+        <v>4424247.209299501</v>
+      </c>
+      <c r="O24" s="13">
         <f t="shared" si="2"/>
-        <v>4424247.209299501</v>
-      </c>
-      <c r="O24" s="13">
-        <f t="shared" si="3"/>
         <v>43.663925085610671</v>
       </c>
       <c r="P24" s="5">
         <v>5000000</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R24">
         <v>284400</v>
       </c>
       <c r="S24">
+        <f t="shared" si="3"/>
+        <v>1422000</v>
+      </c>
+      <c r="T24" s="5">
         <f t="shared" si="4"/>
-        <v>1422000</v>
-      </c>
-      <c r="T24" s="5">
+        <v>575752.79070049932</v>
+      </c>
+      <c r="U24" s="6">
         <f t="shared" si="5"/>
-        <v>575752.79070049932</v>
-      </c>
-      <c r="U24" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246853</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4698099999999998</v>
       </c>
       <c r="W24" s="5">
@@ -5377,37 +5377,37 @@
         <v>1E-4</v>
       </c>
       <c r="N25" s="3">
+        <f t="shared" si="6"/>
+        <v>4249334.9690866908</v>
+      </c>
+      <c r="O25" s="13">
         <f t="shared" si="2"/>
-        <v>4249334.9690866908</v>
-      </c>
-      <c r="O25" s="13">
-        <f t="shared" si="3"/>
         <v>41.937675490616243</v>
       </c>
       <c r="P25" s="5">
         <v>5000000</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R25">
         <v>370800</v>
       </c>
       <c r="S25">
+        <f t="shared" si="3"/>
+        <v>1854000</v>
+      </c>
+      <c r="T25" s="5">
         <f t="shared" si="4"/>
-        <v>1854000</v>
-      </c>
-      <c r="T25" s="5">
+        <v>750665.03091330919</v>
+      </c>
+      <c r="U25" s="6">
         <f t="shared" si="5"/>
-        <v>750665.03091330919</v>
-      </c>
-      <c r="U25" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246853</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4698099999999998</v>
       </c>
       <c r="W25" s="5">
@@ -5462,37 +5462,37 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="N26" s="3">
+        <f t="shared" si="6"/>
+        <v>4074422.728873881</v>
+      </c>
+      <c r="O26" s="13">
         <f t="shared" si="2"/>
-        <v>4074422.728873881</v>
-      </c>
-      <c r="O26" s="13">
-        <f t="shared" si="3"/>
         <v>40.211425895621822</v>
       </c>
       <c r="P26" s="5">
         <v>5000000</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R26">
         <v>457200</v>
       </c>
       <c r="S26">
+        <f t="shared" si="3"/>
+        <v>2286000</v>
+      </c>
+      <c r="T26" s="5">
         <f t="shared" si="4"/>
-        <v>2286000</v>
-      </c>
-      <c r="T26" s="5">
+        <v>925577.27112611907</v>
+      </c>
+      <c r="U26" s="6">
         <f t="shared" si="5"/>
-        <v>925577.27112611907</v>
-      </c>
-      <c r="U26" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246852996</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4698099999999998</v>
       </c>
       <c r="W26" s="5">
@@ -5541,37 +5541,37 @@
         <v>81.560199999999995</v>
       </c>
       <c r="N27" s="3">
+        <f t="shared" si="6"/>
+        <v>3899510.4886610713</v>
+      </c>
+      <c r="O27" s="13">
         <f t="shared" si="2"/>
-        <v>3899510.4886610713</v>
-      </c>
-      <c r="O27" s="13">
-        <f t="shared" si="3"/>
         <v>38.485176300627401</v>
       </c>
       <c r="P27" s="5">
         <v>5000000</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R27">
         <v>543600</v>
       </c>
       <c r="S27">
+        <f t="shared" si="3"/>
+        <v>2718000</v>
+      </c>
+      <c r="T27" s="5">
         <f t="shared" si="4"/>
-        <v>2718000</v>
-      </c>
-      <c r="T27" s="5">
+        <v>1100489.5113389289</v>
+      </c>
+      <c r="U27" s="6">
         <f t="shared" si="5"/>
-        <v>1100489.5113389289</v>
-      </c>
-      <c r="U27" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246852996</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4698099999999998</v>
       </c>
       <c r="W27" s="5">
@@ -5620,37 +5620,37 @@
         <v>80.474100000000007</v>
       </c>
       <c r="N28" s="3">
+        <f t="shared" si="6"/>
+        <v>3724598.2484482611</v>
+      </c>
+      <c r="O28" s="13">
         <f t="shared" si="2"/>
-        <v>3724598.2484482611</v>
-      </c>
-      <c r="O28" s="13">
-        <f t="shared" si="3"/>
         <v>36.758926705632973</v>
       </c>
       <c r="P28" s="5">
         <v>5000000</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R28">
         <v>630000</v>
       </c>
       <c r="S28">
+        <f t="shared" si="3"/>
+        <v>3150000</v>
+      </c>
+      <c r="T28" s="5">
         <f t="shared" si="4"/>
-        <v>3150000</v>
-      </c>
-      <c r="T28" s="5">
+        <v>1275401.7515517389</v>
+      </c>
+      <c r="U28" s="6">
         <f t="shared" si="5"/>
-        <v>1275401.7515517389</v>
-      </c>
-      <c r="U28" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246853</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4698099999999998</v>
       </c>
       <c r="W28" s="5">
@@ -5699,37 +5699,37 @@
         <v>79.617900000000006</v>
       </c>
       <c r="N29" s="3">
+        <f t="shared" si="6"/>
+        <v>3549686.0082354513</v>
+      </c>
+      <c r="O29" s="13">
         <f t="shared" si="2"/>
-        <v>3549686.0082354513</v>
-      </c>
-      <c r="O29" s="13">
-        <f t="shared" si="3"/>
         <v>35.032677110638552</v>
       </c>
       <c r="P29" s="5">
         <v>5000000</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R29">
         <v>716400</v>
       </c>
       <c r="S29">
+        <f t="shared" si="3"/>
+        <v>3582000</v>
+      </c>
+      <c r="T29" s="5">
         <f t="shared" si="4"/>
-        <v>3582000</v>
-      </c>
-      <c r="T29" s="5">
+        <v>1450313.9917645487</v>
+      </c>
+      <c r="U29" s="6">
         <f t="shared" si="5"/>
-        <v>1450313.9917645487</v>
-      </c>
-      <c r="U29" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246852996</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4698099999999998</v>
       </c>
       <c r="W29" s="5">
@@ -5778,37 +5778,37 @@
         <v>78.867599999999996</v>
       </c>
       <c r="N30" s="3">
+        <f t="shared" si="6"/>
+        <v>3374773.7680226415</v>
+      </c>
+      <c r="O30" s="13">
         <f t="shared" si="2"/>
-        <v>3374773.7680226415</v>
-      </c>
-      <c r="O30" s="13">
-        <f t="shared" si="3"/>
         <v>33.306427515644131</v>
       </c>
       <c r="P30" s="5">
         <v>5000000</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R30">
         <v>802800</v>
       </c>
       <c r="S30">
+        <f t="shared" si="3"/>
+        <v>4014000</v>
+      </c>
+      <c r="T30" s="5">
         <f t="shared" si="4"/>
-        <v>4014000</v>
-      </c>
-      <c r="T30" s="5">
+        <v>1625226.2319773587</v>
+      </c>
+      <c r="U30" s="6">
         <f t="shared" si="5"/>
-        <v>1625226.2319773587</v>
-      </c>
-      <c r="U30" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246853</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4698099999999998</v>
       </c>
       <c r="W30" s="5">
@@ -5857,37 +5857,37 @@
         <v>78.174499999999995</v>
       </c>
       <c r="N31" s="3">
+        <f t="shared" si="6"/>
+        <v>3250877.597871901</v>
+      </c>
+      <c r="O31" s="13">
         <f t="shared" si="2"/>
-        <v>3250877.597871901</v>
-      </c>
-      <c r="O31" s="13">
-        <f t="shared" si="3"/>
         <v>32.083667385856415</v>
       </c>
       <c r="P31" s="5">
         <v>5000000</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R31">
         <v>864000</v>
       </c>
       <c r="S31">
+        <f t="shared" si="3"/>
+        <v>4320000</v>
+      </c>
+      <c r="T31" s="5">
         <f t="shared" si="4"/>
-        <v>4320000</v>
-      </c>
-      <c r="T31" s="5">
+        <v>1749122.402128099</v>
+      </c>
+      <c r="U31" s="6">
         <f t="shared" si="5"/>
-        <v>1749122.402128099</v>
-      </c>
-      <c r="U31" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246852996</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4698099999999998</v>
       </c>
       <c r="W31" s="5">
@@ -5923,37 +5923,37 @@
         <v>77.515000000000001</v>
       </c>
       <c r="N32" s="3">
+        <f t="shared" si="6"/>
+        <v>3250877.597871901</v>
+      </c>
+      <c r="O32" s="13">
         <f t="shared" si="2"/>
-        <v>3250877.597871901</v>
-      </c>
-      <c r="O32" s="13">
-        <f t="shared" si="3"/>
         <v>32.083667385856415</v>
       </c>
       <c r="P32" s="5">
         <v>5000000</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R32">
         <v>864000</v>
       </c>
       <c r="S32">
+        <f t="shared" si="3"/>
+        <v>4320000</v>
+      </c>
+      <c r="T32" s="5">
         <f t="shared" si="4"/>
-        <v>4320000</v>
-      </c>
-      <c r="T32" s="5">
+        <v>1749122.402128099</v>
+      </c>
+      <c r="U32" s="6">
         <f t="shared" si="5"/>
-        <v>1749122.402128099</v>
-      </c>
-      <c r="U32" s="6">
-        <f t="shared" si="6"/>
         <v>2.0244472246852996</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4698099999999998</v>
       </c>
       <c r="W32" s="5">
@@ -6564,6 +6564,10 @@
       <c r="AD57">
         <f>1/AC57*(AC58-AC57)/(AB58-AB57)</f>
         <v>4.0054433975964478E-5</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" ref="AE55:AE57" si="18">AD57/100000</f>
+        <v>4.0054433975964478E-10</v>
       </c>
     </row>
     <row r="58" spans="14:31" x14ac:dyDescent="0.25">
